--- a/dti2020.xlsx
+++ b/dti2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="203">
   <si>
     <t>Comcode</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>27129031</t>
+  </si>
+  <si>
+    <t>ValueGBP</t>
   </si>
 </sst>
 </file>
@@ -2345,7 +2348,7 @@
   <tableColumns count="6">
     <tableColumn id="1" name="Comcode" dataDxfId="38"/>
     <tableColumn id="2" name="Country of Destination" dataDxfId="37"/>
-    <tableColumn id="3" name="Value (£)" dataDxfId="36"/>
+    <tableColumn id="3" name="ValueGBP" dataDxfId="36"/>
     <tableColumn id="4" name="Netmass (Kg)" dataDxfId="35"/>
     <tableColumn id="5" name="Qty 2" dataDxfId="34"/>
     <tableColumn id="6" name="Qty 2 unit" dataDxfId="33"/>
@@ -2792,7 +2795,7 @@
   <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2814,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>2</v>
@@ -4148,7 +4151,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4882,7 +4885,7 @@
   </sheetPr>
   <dimension ref="A1:AB523"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
